--- a/docs/Homicides.xlsx
+++ b/docs/Homicides.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Kiosk_LL_Public\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Kiosk_LL_Public\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Murder" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="216">
   <si>
     <t>daimler</t>
   </si>
@@ -745,12 +745,24 @@
   <si>
     <t>ibm.daimle.dtcc: brain cancer big payment, swift</t>
   </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Child runover Ingo schulz 2</t>
+  </si>
+  <si>
+    <t>https://github.com/1D8723/www/raw/01-24-2023/docs/pdf/01-23-2023.KYSTAL.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/1D8723/www/raw/01-24-2023/docs/pdf/01-24-2023.HOLZHAUSER.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +909,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1196,7 +1216,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1239,8 +1259,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1252,8 +1273,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1287,6 +1309,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1573,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG60"/>
+  <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,6 +1826,9 @@
       <c r="R4" t="s">
         <v>81</v>
       </c>
+      <c r="V4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2440,7 +2466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2496,7 +2522,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2561,7 +2587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2617,7 +2643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2679,7 +2705,7 @@
         <v>38353</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2735,7 +2761,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2794,7 +2820,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2856,7 +2882,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2918,7 +2944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2971,7 +2997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3021,7 +3047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3086,7 +3112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3133,7 +3159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3195,247 +3221,248 @@
         <v>34335</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1993</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="V30" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="W31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E31" s="6" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+    <row r="33" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
         <v>129</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AF33" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AG33" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E33" s="5">
-        <v>1988</v>
-      </c>
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" t="s">
-        <v>79</v>
-      </c>
-      <c r="V33" t="s">
-        <v>115</v>
-      </c>
-      <c r="W33" t="s">
-        <v>79</v>
-      </c>
-      <c r="X33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E34" s="5">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="W34" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E35" s="5">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="V35" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="W35" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="X35" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="AC35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E36" s="5">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V36" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="W36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X36" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="AC36" t="s">
         <v>118</v>
       </c>
-      <c r="AG36" t="s">
-        <v>141</v>
+      <c r="AF36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E37" s="5">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="W37" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X37" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="AC37" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E38" s="5">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
         <v>30</v>
       </c>
       <c r="V38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AC38" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E39" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E40" s="5">
         <v>2004</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" t="s">
         <v>71</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X40" t="s">
         <v>127</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC40" t="s">
         <v>131</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG40" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E42" s="5">
-        <v>2013</v>
-      </c>
-      <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E43" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -3444,110 +3471,130 @@
         <v>30</v>
       </c>
       <c r="V43" t="s">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s">
-        <v>26</v>
-      </c>
-      <c r="X43" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="AC43" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E44" s="5">
+        <v>2014</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="V44" t="s">
+        <v>75</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E45" s="5">
         <v>2016</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V45" t="s">
         <v>142</v>
       </c>
-      <c r="W44" t="s">
-        <v>26</v>
-      </c>
-      <c r="X44" t="s">
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45" t="s">
         <v>143</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AC45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="W45" t="s">
+    <row r="46" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="W46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="48" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>139</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AF48" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="V48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="5:22" x14ac:dyDescent="0.25">
       <c r="V49" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="5:22" x14ac:dyDescent="0.25">
       <c r="V50" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="5:22" x14ac:dyDescent="0.25">
       <c r="V51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="V52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="56" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="5:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E56" s="8">
-        <v>1997</v>
-      </c>
-      <c r="V56" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="57" spans="5:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E57" s="8">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="V57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="5:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E58" s="8">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="V58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="5:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E59" s="8">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="V59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="5:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E60" s="8">
+        <v>1995</v>
+      </c>
+      <c r="V60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="5:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E61" s="8">
         <v>2016</v>
       </c>
-      <c r="V60" t="s">
+      <c r="V61" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3555,8 +3602,11 @@
   <sortState ref="A2:U29">
     <sortCondition ref="B2:B29"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="Y30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
